--- a/biology/Botanique/Sophora/Sophora.xlsx
+++ b/biology/Botanique/Sophora/Sophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophora est un genre de plantes arborescentes de la tribu des Sophoreae et de la famille des Fabaceae qui comprend 31 espèces. Ce sont de petits arbres ou arbustes. Ces plantes sont originaires des régions tempérées et chaudes du sud-est de l'Europe à l'Asie, de l'Australasie et des îles de l'océan Pacifique ainsi que de l'ouest de l'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre avait initialement une plus grande extension, incluant de nombreuses espèces désormais classées dans d'autres genres, notamment Styphnolobium, qui se distingue par l'absence de bactéries (Rhizobium) assurant la fixation biologique de l'azote dans les racines, et Calia (les fèves de mescal).
 Les espèces de Sophora de Nouvelle-Zélande sont connues localement sous le nom de Kowhai.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon GRIN            (29 novembre 2018)[1] : 
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (29 novembre 2018) : 
 Ammothamnus Bunge
 Broussonetia Ortega
 Cephalostigmaton (Yakovlev) Yakovlev
@@ -556,9 +575,43 @@
 Edwardsia Salisb.
 Goebelia Bunge ex Boiss.
 Keyserlingia Bunge ex Boiss.
-Vexibia Raf.
-Liste d'espèces
-Sophora albescens (Rehder) C.Y.Ma
+Vexibia Raf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sophora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sophora albescens (Rehder) C.Y.Ma
 Sophora alopecuroides L.
 Sophora cassioides (Phil.) Sparre - Pelu (Chili)
 syn. Sophora macnabiana - (Chili)
@@ -589,9 +642,43 @@
 Sophora tonkinensis Gagnep.
 Sophora toromiro Skottsb. - Toromiro (île de Pâques)
 Sophora velutina Lindl.
-Sophora violacea Thwaites
-Espèces reclassées dans d'autres genres
-Pour Sophora affinis Torr. &amp; A. Gray, voir Styphnolobium affine (Torr. &amp; A. Gray) Walp. - Sophorier du Texas, collier d'Ève (Oklahoma et Texas, États-Unis)
+Sophora violacea Thwaites</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sophora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces reclassées dans d'autres genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour Sophora affinis Torr. &amp; A. Gray, voir Styphnolobium affine (Torr. &amp; A. Gray) Walp. - Sophorier du Texas, collier d'Ève (Oklahoma et Texas, États-Unis)
 Pour Sophora japonica L., voir  Styphnolobium japonicum (L.) Schott - le sophorier du Japon ou arbre des pagodes
 Pour Sophora secundiflora  (Ortega) Lag. ex DC., voir Calia secundiflora  (Ortega) Yakovlev - haricot mescal</t>
         </is>
